--- a/excel/funcionalidades_maestro.xlsx
+++ b/excel/funcionalidades_maestro.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/funcionalidades_maestro.xlsx
+++ b/excel/funcionalidades_maestro.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -103,93 +103,18 @@
     <t>Vendedor Estándar</t>
   </si>
   <si>
-    <r>
-      <t>estado_de_cuentas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hacer_pedido</t>
-    </r>
-  </si>
-  <si>
     <t>cliente_estandar</t>
   </si>
   <si>
     <t>Cliente Estándar</t>
   </si>
   <si>
-    <r>
-      <t>mi_cuenta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hacer_pedido</t>
-    </r>
-  </si>
-  <si>
     <t>cliente_premium</t>
   </si>
   <si>
     <t>Cliente Premium</t>
   </si>
   <si>
-    <r>
-      <t>mi_cuenta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hacer_pedido, ver_oferta_especial</t>
-    </r>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -197,6 +122,9 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>estado_de_cuentas</t>
   </si>
 </sst>
 </file>
@@ -224,8 +152,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF383A42"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +575,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,43 +604,44 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>